--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_AppropriationNumberProfile_Regression_01.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_SM_COA_AppropriationNumberProfile_Regression_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46D5DCD-2F83-490A-8323-7A84588F2D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57E8799-19CF-4A6F-83F2-E6338B5BEA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{700E182A-B159-4886-9E6C-1C79495AA709}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -111,18 +111,12 @@
     <t>Recall_Confirm</t>
   </si>
   <si>
-    <t>TC_PM_COA_SEC_DeleteProfile</t>
-  </si>
-  <si>
     <t>Deleting the profile details</t>
   </si>
   <si>
     <t>Logging Out</t>
   </si>
   <si>
-    <t>TC_PR_COA_SEC_AppropriationNumberProfile_EditProfile</t>
-  </si>
-  <si>
     <t>TC_SM_COA_ListView_D3</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>TC_SM_COA_AppropriationNumberProfile_AddNewProfile</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_AppropriationNumberProfile_EditProfile</t>
+  </si>
+  <si>
+    <t>TC_SM_COA_DeleteProfile</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -227,9 +227,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -548,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D2F31-9FDE-492E-B924-B76931AB77A9}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -687,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
@@ -727,10 +724,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
@@ -769,8 +766,8 @@
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -787,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>22</v>
@@ -847,11 +844,11 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
@@ -859,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -870,7 +867,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
